--- a/extras/sample-form/display-graph_sample_form.xlsx
+++ b/extras/sample-form/display-graph_sample_form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitow\Documents\GitHub\display-graph\extras\sample-form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2603015-096F-43A6-9776-1D5E2F1941B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B036FE2F-DFAD-4A88-9210-5698515BE4D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="377">
   <si>
     <t>type</t>
   </si>
@@ -2961,16 +2961,7 @@
     <t>Pie Chart</t>
   </si>
   <si>
-    <t>custom-display-graph(link="https://docs.google.com/spreadsheets/d/e/2PACX-1vT7QQYHLJ9IRORQh0UbfOOOzXfyZBidMYouvLc-nGG4YMOZeRgFG3nP1HIjIsiJQdyNGs8Y3cIOnGhi/pubchart?oid=1569534844&amp;format=interactive")</t>
-  </si>
-  <si>
     <t>Bar Chart</t>
-  </si>
-  <si>
-    <t>Copy Link</t>
-  </si>
-  <si>
-    <t>custom-display-graph(link="https://docs.google.com/spreadsheets/d/e/2PACX-1vT7QQYHLJ9IRORQh0UbfOOOzXfyZBidMYouvLc-nGG4YMOZeRgFG3nP1HIjIsiJQdyNGs8Y3cIOnGhi/pubchart?oid=1099055857&amp;format=interactive")</t>
   </si>
   <si>
     <t>display_graph_bar</t>
@@ -2991,6 +2982,15 @@
     <t xml:space="preserve">Welcome to this sample form for the display-graph field plug-in. The plug-in allows you to display a web-published graph from Google sheets in your form.&lt;br&gt; 
 You can learn about &lt;a href="https://support.google.com/docs/answer/1047436?co=GENIE.Platform%3DDesktop&amp;hl=en" target="_blank"&gt;how to publish a chart here. &lt;/a&gt; 
 </t>
+  </si>
+  <si>
+    <t>custom-display-graph(link="https://docs.google.com/spreadsheets/d/e/2PACX-1vQnMZpxa6JZjIuM8I9yowgtuyrkXBDcP_ULnJoNHjuD7zGacUX0g4zVSmYnfaAD6rSCTPwvsiDKOmxb/pubchart?oid=1569534844&amp;format=interactive")</t>
+  </si>
+  <si>
+    <t>Hint Message</t>
+  </si>
+  <si>
+    <t>custom-display-graph(link="https://docs.google.com/spreadsheets/d/e/2PACX-1vQnMZpxa6JZjIuM8I9yowgtuyrkXBDcP_ULnJoNHjuD7zGacUX0g4zVSmYnfaAD6rSCTPwvsiDKOmxb/pubchart?oid=1099055857&amp;format=interactive")</t>
   </si>
 </sst>
 </file>
@@ -3331,6 +3331,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3349,11 +3354,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5217,10 +5217,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -5460,79 +5460,81 @@
         <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:27" s="44" customFormat="1">
+      <c r="A13" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>369</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>366</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>375</v>
+      </c>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42" t="s">
+        <v>374</v>
+      </c>
+      <c r="G13" s="42"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+    </row>
+    <row r="14" spans="1:27" s="44" customFormat="1">
+      <c r="A14" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>368</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>367</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>375</v>
+      </c>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" s="50" customFormat="1">
-      <c r="A13" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>372</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>366</v>
-      </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48" t="s">
-        <v>367</v>
-      </c>
-      <c r="G13" s="48"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
-    </row>
-    <row r="14" spans="1:27" s="50" customFormat="1">
-      <c r="A14" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>371</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>368</v>
-      </c>
-      <c r="D14" s="49" t="s">
-        <v>369</v>
-      </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48" t="s">
-        <v>370</v>
-      </c>
-      <c r="G14" s="48"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -5737,7 +5739,7 @@
       <formula>OR($A13="audio", $A13="video")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14 A13:B13 D13:W13 C13:C14">
+  <conditionalFormatting sqref="A13:B13 D13:W13 C13:C14 D14">
     <cfRule type="expression" dxfId="150" priority="56" stopIfTrue="1">
       <formula>$A13="comments"</formula>
     </cfRule>
@@ -6038,14 +6040,14 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="10" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C2" s="10" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2008121059</v>
+        <v>2008121213</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="16"/>
@@ -6075,20 +6077,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="42"/>
+      <c r="B1" s="45"/>
     </row>
     <row r="2" spans="1:30">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
     </row>
     <row r="3" spans="1:30" ht="97" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="47"/>
     </row>
     <row r="5" spans="1:30" s="9" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="5" t="s">
@@ -6275,10 +6277,10 @@
       </c>
     </row>
     <row r="8" spans="1:30" s="22" customFormat="1">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="45"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -9065,10 +9067,10 @@
       <c r="AD81" s="23"/>
     </row>
     <row r="83" spans="1:30">
-      <c r="A83" s="46" t="s">
+      <c r="A83" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="B83" s="46"/>
+      <c r="B83" s="49"/>
       <c r="C83" s="28"/>
       <c r="D83" s="29"/>
       <c r="E83" s="30"/>
@@ -10228,20 +10230,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="45" t="s">
         <v>349</v>
       </c>
-      <c r="B1" s="42"/>
+      <c r="B1" s="45"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
     </row>
     <row r="3" spans="1:8" ht="99" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="47"/>
     </row>
     <row r="5" spans="1:8" s="9" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="11" t="s">
@@ -10315,28 +10317,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="50" t="s">
         <v>358</v>
       </c>
-      <c r="B1" s="47"/>
+      <c r="B1" s="50"/>
       <c r="C1" s="38"/>
       <c r="D1" s="38"/>
       <c r="E1" s="38"/>
       <c r="F1" s="38"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
       <c r="F2" s="38"/>
     </row>
     <row r="3" spans="1:8" ht="55" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="47" t="s">
         <v>359</v>
       </c>
-      <c r="B3" s="44"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="38"/>
       <c r="D3" s="38"/>
       <c r="E3" s="38"/>

--- a/extras/sample-form/display-graph_sample_form.xlsx
+++ b/extras/sample-form/display-graph_sample_form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitow\Documents\GitHub\display-graph\extras\sample-form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B036FE2F-DFAD-4A88-9210-5698515BE4D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A768F5-5926-4487-90D7-05A12620FF2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5220,7 +5220,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -6047,7 +6047,7 @@
       </c>
       <c r="C2" s="10" t="str">
         <f ca="1">TEXT(YEAR(NOW())-2000, "00") &amp; TEXT(MONTH(NOW()), "00") &amp; TEXT(DAY(NOW()), "00") &amp; TEXT(HOUR(NOW()), "00") &amp; TEXT(MINUTE(NOW()), "00")</f>
-        <v>2008121213</v>
+        <v>2008121739</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="16"/>
